--- a/DATA_goal/Junction_Flooding_63.xlsx
+++ b/DATA_goal/Junction_Flooding_63.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41495.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>23.16</v>
+        <v>2.32</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>16</v>
+        <v>1.6</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.23</v>
+        <v>0.42</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>48.77</v>
+        <v>4.88</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>40.35</v>
+        <v>4.03</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>18.22</v>
+        <v>1.82</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>60.55</v>
+        <v>6.06</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>28.04</v>
+        <v>2.8</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.94</v>
+        <v>1.19</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>18.4</v>
+        <v>1.84</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>19.29</v>
+        <v>1.93</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>20.24</v>
+        <v>2.02</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.82</v>
+        <v>0.58</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>18.12</v>
+        <v>1.81</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>25.51</v>
+        <v>2.55</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>15.12</v>
+        <v>1.51</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.8</v>
+        <v>0.38</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>268.49</v>
+        <v>26.85</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>50.47</v>
+        <v>5.05</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>16.73</v>
+        <v>1.67</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>33.54</v>
+        <v>3.35</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>17.47</v>
+        <v>1.75</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.22</v>
+        <v>0.22</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>30.08</v>
+        <v>3.01</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>14.77</v>
+        <v>1.48</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>13.25</v>
+        <v>1.32</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>15.5</v>
+        <v>1.55</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>19.98</v>
+        <v>2</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>53.52</v>
+        <v>5.35</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.33</v>
+        <v>0.93</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>20.91</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="3">
@@ -759,97 +759,97 @@
         <v>41495.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="X3" s="4" t="n">
         <v>0.04</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="Y3" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>0.04</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>8.44</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.39</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="AG3" s="4" t="n">
         <v>0</v>
@@ -863,103 +863,103 @@
         <v>41495.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>19.46</v>
+        <v>1.95</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>14.6</v>
+        <v>1.46</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>42.33</v>
+        <v>4.23</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>35.41</v>
+        <v>3.54</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>16.15</v>
+        <v>1.61</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>54</v>
+        <v>5.4</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>23.52</v>
+        <v>2.35</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>10.39</v>
+        <v>1.04</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>15.87</v>
+        <v>1.59</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>17.1</v>
+        <v>1.71</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>18.23</v>
+        <v>1.82</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.89</v>
+        <v>0.49</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>15.23</v>
+        <v>1.52</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>21.54</v>
+        <v>2.15</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>12.64</v>
+        <v>1.26</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>225.6</v>
+        <v>22.56</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>42.54</v>
+        <v>4.25</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>14.09</v>
+        <v>1.41</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>28.49</v>
+        <v>2.85</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>15.21</v>
+        <v>1.52</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.08</v>
+        <v>0.21</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>26.75</v>
+        <v>2.68</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>12.39</v>
+        <v>1.24</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>10.91</v>
+        <v>1.09</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>12.85</v>
+        <v>1.29</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>17.83</v>
+        <v>1.78</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>48.62</v>
+        <v>4.86</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>8.029999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>17.5</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41495.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>17.26</v>
+        <v>1.73</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>12.95</v>
+        <v>1.29</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>37.56</v>
+        <v>3.76</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>31.41</v>
+        <v>3.14</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>14.12</v>
+        <v>1.41</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>53.11</v>
+        <v>5.31</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>20.85</v>
+        <v>2.09</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.27</v>
+        <v>0.93</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.09</v>
+        <v>1.41</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>15.18</v>
+        <v>1.52</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>16.15</v>
+        <v>1.62</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.34</v>
+        <v>0.43</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>13.5</v>
+        <v>1.35</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>19.15</v>
+        <v>1.92</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.21</v>
+        <v>1.12</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>199.02</v>
+        <v>19.9</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>37.88</v>
+        <v>3.79</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>12.49</v>
+        <v>1.25</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>25.4</v>
+        <v>2.54</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>13.52</v>
+        <v>1.35</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.85</v>
+        <v>0.18</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>25.7</v>
+        <v>2.57</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.98</v>
+        <v>1.1</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.699999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>11.42</v>
+        <v>1.14</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>15.82</v>
+        <v>1.58</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>48.24</v>
+        <v>4.82</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.14</v>
+        <v>0.71</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>15.52</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41495.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>13.71</v>
+        <v>1.37</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>10.28</v>
+        <v>1.03</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>29.84</v>
+        <v>2.98</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>24.97</v>
+        <v>2.5</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>11.18</v>
+        <v>1.12</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>43.29</v>
+        <v>4.33</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>16.56</v>
+        <v>1.66</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>7.38</v>
+        <v>0.74</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>11.21</v>
+        <v>1.12</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>12.07</v>
+        <v>1.21</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>12.83</v>
+        <v>1.28</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>3.45</v>
+        <v>0.35</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>10.72</v>
+        <v>1.07</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>15.21</v>
+        <v>1.52</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>8.91</v>
+        <v>0.89</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>156.56</v>
+        <v>15.66</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>30.11</v>
+        <v>3.01</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>9.93</v>
+        <v>0.99</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>20.18</v>
+        <v>2.02</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>10.76</v>
+        <v>1.08</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.48</v>
+        <v>0.15</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>20.72</v>
+        <v>2.07</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>8.720000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>7.72</v>
+        <v>0.77</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>9.08</v>
+        <v>0.91</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>12.57</v>
+        <v>1.26</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>39.28</v>
+        <v>3.93</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>5.68</v>
+        <v>0.57</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>12.33</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41495.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>10.26</v>
+        <v>1.03</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>7.68</v>
+        <v>0.77</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>22.32</v>
+        <v>2.23</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>18.72</v>
+        <v>1.87</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>32.98</v>
+        <v>3.3</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>12.38</v>
+        <v>1.24</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>5.52</v>
+        <v>0.55</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>8.4</v>
+        <v>0.84</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>9.039999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>9.609999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>2.58</v>
+        <v>0.26</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>8.01</v>
+        <v>0.8</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>11.36</v>
+        <v>1.14</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>6.67</v>
+        <v>0.67</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>115.3</v>
+        <v>11.53</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>22.56</v>
+        <v>2.26</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>7.43</v>
+        <v>0.74</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>15.1</v>
+        <v>1.51</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>8.07</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.12</v>
+        <v>0.11</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>15.69</v>
+        <v>1.57</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>6.52</v>
+        <v>0.65</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>5.79</v>
+        <v>0.58</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>6.81</v>
+        <v>0.68</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>9.4</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>29.93</v>
+        <v>2.99</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>4.26</v>
+        <v>0.43</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>9.210000000000001</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41495.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>12.47</v>
+        <v>1.25</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>9.34</v>
+        <v>0.93</v>
       </c>
       <c r="D8" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>14.16</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA8" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AB8" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AC8" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AD8" s="4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AE8" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AF8" s="4" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AG8" s="4" t="n">
         <v>0.52</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <v>27.14</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>22.67</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>37.83</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>15.06</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>10.19</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>13.84</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>141.58</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>27.32</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>18.35</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>18.31</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>7.93</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>11.43</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>34.23</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>5.17</v>
-      </c>
       <c r="AH8" s="4" t="n">
-        <v>11.21</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41495.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>19.49</v>
+        <v>1.95</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>14.61</v>
+        <v>1.46</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>42.4</v>
+        <v>4.24</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>35.26</v>
+        <v>3.53</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>15.55</v>
+        <v>1.56</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>58.12</v>
+        <v>5.81</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>23.56</v>
+        <v>2.36</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>10.56</v>
+        <v>1.06</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>15.89</v>
+        <v>1.59</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>17.08</v>
+        <v>1.71</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>18.1</v>
+        <v>1.81</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>4.9</v>
+        <v>0.49</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>15.23</v>
+        <v>1.52</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>21.71</v>
+        <v>2.17</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>12.65</v>
+        <v>1.26</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>225.12</v>
+        <v>22.51</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>42.66</v>
+        <v>4.27</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>14.09</v>
+        <v>1.41</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>28.76</v>
+        <v>2.88</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>15.23</v>
+        <v>1.52</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>2.05</v>
+        <v>0.21</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>28.46</v>
+        <v>2.85</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>12.41</v>
+        <v>1.24</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>10.95</v>
+        <v>1.1</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>12.88</v>
+        <v>1.29</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>17.87</v>
+        <v>1.79</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>52.69</v>
+        <v>5.27</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>8.06</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>17.55</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41495.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>9.59</v>
+        <v>0.96</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>7.18</v>
+        <v>0.72</v>
       </c>
       <c r="D10" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="M10" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="N10" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="O10" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="P10" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Q10" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="R10" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S10" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <v>10.72</v>
+      </c>
+      <c r="U10" s="4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V10" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="W10" s="4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X10" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Y10" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z10" s="4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AA10" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AB10" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AC10" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AD10" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AE10" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AF10" s="4" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AG10" s="4" t="n">
         <v>0.4</v>
       </c>
-      <c r="E10" s="4" t="n">
-        <v>20.87</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>17.44</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>7.74</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>32.61</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>8.43</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>107.24</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>21.16</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>14.21</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>15.41</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>8.789999999999999</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>29.78</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>3.98</v>
-      </c>
       <c r="AH10" s="4" t="n">
-        <v>8.619999999999999</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_63.xlsx
+++ b/DATA_goal/Junction_Flooding_63.xlsx
@@ -453,8 +453,8 @@
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
@@ -471,11 +471,11 @@
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>40750.75694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.92</v>
+        <v>9.17</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.65</v>
+        <v>6.53</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.85</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.06</v>
+        <v>20.58</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.49</v>
+        <v>14.86</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.62</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2</v>
+        <v>20.04</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.16</v>
+        <v>11.57</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.47</v>
+        <v>4.74</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.85</v>
+        <v>8.5</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.82</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.75</v>
+        <v>7.52</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1</v>
+        <v>9.99</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.71</v>
+        <v>7.07</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.2</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>10.7</v>
+        <v>107.05</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.07</v>
+        <v>20.66</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.29</v>
+        <v>12.86</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.39</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.4</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.19</v>
+        <v>11.91</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.61</v>
+        <v>6.13</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.79</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.63</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.88</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.22</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.81</v>
+        <v>18.05</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.62</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40750.76388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.03</v>
+        <v>10.31</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.76</v>
+        <v>7.6</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.45</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.3</v>
+        <v>22.95</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.79</v>
+        <v>17.86</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.77</v>
+        <v>7.69</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.02</v>
+        <v>30.17</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.27</v>
+        <v>12.74</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.6</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.76</v>
+        <v>7.6</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.41</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.97</v>
+        <v>9.69</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.95</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.27</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.15</v>
+        <v>11.46</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.74</v>
+        <v>7.4</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.09</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>11.86</v>
+        <v>118.56</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.31</v>
+        <v>23.12</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.76</v>
+        <v>7.63</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.51</v>
+        <v>15.06</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.19</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.59</v>
+        <v>15.93</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.74</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.17</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.72</v>
+        <v>7.21</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.97</v>
+        <v>9.69</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.1</v>
+        <v>1.02</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.79</v>
+        <v>27.88</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.13</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.95</v>
+        <v>9.539999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40750.77083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.34</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.84</v>
+        <v>8.43</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.09</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.51</v>
+        <v>25.07</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2</v>
+        <v>19.99</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.86</v>
+        <v>8.6</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.47</v>
+        <v>34.65</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.39</v>
+        <v>13.91</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.62</v>
+        <v>6.21</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.02</v>
+        <v>10.22</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.06</v>
+        <v>10.61</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.26</v>
+        <v>12.65</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.87</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>13</v>
+        <v>130.01</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.52</v>
+        <v>25.23</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.33</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.67</v>
+        <v>16.68</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.89</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.23</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.75</v>
+        <v>17.55</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.36</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.63</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.78</v>
+        <v>7.78</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.06</v>
+        <v>10.57</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.18</v>
+        <v>31.77</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.58</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40750.77777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.51</v>
+        <v>5.14</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.8</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.15</v>
+        <v>11.49</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.9</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.78</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.9</v>
+        <v>18.96</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.35</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.29</v>
+        <v>2.89</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.76</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.74</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.86</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.52</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.14</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.76</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.73</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>5.56</v>
+        <v>55.64</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.17</v>
+        <v>11.73</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.82</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.77</v>
+        <v>7.66</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.05</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.42</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.37</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.1</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.63</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.85</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.77</v>
+        <v>17.67</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.2</v>
+        <v>2.04</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_63.xlsx
+++ b/DATA_goal/Junction_Flooding_63.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>40750.75694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>9.17</v>
+        <v>9.173</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.53</v>
+        <v>6.534</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.85</v>
+        <v>2.853</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>20.58</v>
+        <v>20.581</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>14.86</v>
+        <v>14.857</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>6.62</v>
+        <v>6.617</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>20.04</v>
+        <v>20.037</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>11.57</v>
+        <v>11.575</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.74</v>
+        <v>4.738</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6</v>
+        <v>6.004</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>8.5</v>
+        <v>8.497</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>8.644</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.82</v>
+        <v>2.821</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.52</v>
+        <v>7.519</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>9.99</v>
+        <v>9.989000000000001</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.07</v>
+        <v>7.075</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.2</v>
+        <v>2.196</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.76</v>
+        <v>0.759</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>107.05</v>
+        <v>107.045</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>20.66</v>
+        <v>20.658</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>6.94</v>
+        <v>6.941</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>12.86</v>
+        <v>12.856</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.39</v>
+        <v>7.392</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.4</v>
+        <v>1.396</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>11.91</v>
+        <v>11.913</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.13</v>
+        <v>6.131</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.79</v>
+        <v>5.786</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.63</v>
+        <v>6.628</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>8.785</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.22</v>
+        <v>2.215</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>18.05</v>
+        <v>18.053</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.62</v>
+        <v>3.621</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>8.68</v>
+        <v>8.676</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40750.76388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>10.31</v>
+        <v>10.306</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7.6</v>
+        <v>7.595</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.45</v>
+        <v>1.448</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>22.95</v>
+        <v>22.954</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>17.86</v>
+        <v>17.861</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.69</v>
+        <v>7.688</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>30.17</v>
+        <v>30.168</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>12.74</v>
+        <v>12.743</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.6</v>
+        <v>5.596</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>7.6</v>
+        <v>7.601</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>9.41</v>
+        <v>9.414</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>9.69</v>
+        <v>9.688000000000001</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.95</v>
+        <v>2.949</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>8.27</v>
+        <v>8.271000000000001</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>11.46</v>
+        <v>11.462</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>7.4</v>
+        <v>7.404</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.09</v>
+        <v>1.094</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.5</v>
+        <v>0.495</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>118.56</v>
+        <v>118.562</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>23.12</v>
+        <v>23.118</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.63</v>
+        <v>7.635</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>15.06</v>
+        <v>15.061</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>8.130000000000001</v>
+        <v>8.129</v>
       </c>
       <c r="Y3" s="4" t="n">
         <v>1.19</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>15.93</v>
+        <v>15.929</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.74</v>
+        <v>6.744</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.17</v>
+        <v>6.165</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>7.21</v>
+        <v>7.206</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>9.69</v>
+        <v>9.686</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.02</v>
+        <v>1.023</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>27.88</v>
+        <v>27.875</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.13</v>
+        <v>4.131</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>9.545</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40750.77083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>11.34</v>
+        <v>11.342</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.43</v>
+        <v>8.433999999999999</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.09</v>
+        <v>1.089</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>25.07</v>
+        <v>25.071</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>19.99</v>
+        <v>19.993</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.6</v>
+        <v>8.599</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>34.65</v>
+        <v>34.653</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>13.91</v>
+        <v>13.911</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.21</v>
+        <v>6.212</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>8.68</v>
+        <v>8.683</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>10.22</v>
+        <v>10.221</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>10.61</v>
+        <v>10.613</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.13</v>
+        <v>3.128</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>9.02</v>
+        <v>9.023</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>12.65</v>
+        <v>12.648</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>7.87</v>
+        <v>7.868</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.782</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.43</v>
+        <v>0.431</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>130.01</v>
+        <v>130.009</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>25.23</v>
+        <v>25.231</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>8.33</v>
+        <v>8.329000000000001</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>16.68</v>
+        <v>16.681</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>8.879</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.23</v>
+        <v>1.231</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>17.55</v>
+        <v>17.546</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.36</v>
+        <v>7.357</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.63</v>
+        <v>6.633</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.78</v>
+        <v>7.778</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>10.57</v>
+        <v>10.575</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.67</v>
+        <v>0.671</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>31.77</v>
+        <v>31.767</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.58</v>
+        <v>4.583</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>10.41</v>
+        <v>10.413</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>4.77</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40750.78471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>10.45</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>22.99</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>30.57</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>8.27</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>118.55</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>23.05</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>15.36</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>15.35</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>27.72</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>9.539999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_63.xlsx
+++ b/DATA_goal/Junction_Flooding_63.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,91 +967,91 @@
         <v>40750.77777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.14</v>
+        <v>5.138</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>3.8</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.7</v>
+        <v>0.695</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>11.49</v>
+        <v>11.491</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>8.960000000000001</v>
+        <v>8.956</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.78</v>
+        <v>3.778</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>18.96</v>
+        <v>18.963</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.35</v>
+        <v>6.352</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.89</v>
+        <v>2.885</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.76</v>
+        <v>3.765</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.74</v>
+        <v>4.742</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>4.86</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.52</v>
+        <v>1.524</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.14</v>
+        <v>4.136</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.76</v>
+        <v>5.759</v>
       </c>
       <c r="Q5" s="4" t="n">
         <v>3.73</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.57</v>
+        <v>0.572</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.2</v>
+        <v>0.204</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>55.64</v>
+        <v>55.644</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>11.73</v>
+        <v>11.725</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.82</v>
+        <v>3.817</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>7.66</v>
+        <v>7.658</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.05</v>
+        <v>4.052</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.57</v>
+        <v>0.569</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>9.42</v>
+        <v>9.417999999999999</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.37</v>
+        <v>3.372</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.1</v>
+        <v>3.101</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.63</v>
+        <v>3.625</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.85</v>
+        <v>4.845</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.5</v>
@@ -1060,10 +1060,114 @@
         <v>17.67</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.04</v>
+        <v>2.044</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.77</v>
+        <v>4.774</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>40750.78471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>18.58</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>30.57</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>8.16</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>118.55</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>15.36</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>27.72</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>9.539999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_63.xlsx
+++ b/DATA_goal/Junction_Flooding_63.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,91 +967,91 @@
         <v>40750.77777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.138</v>
+        <v>5.14</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>3.8</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.695</v>
+        <v>0.7</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>11.491</v>
+        <v>11.49</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>8.956</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.778</v>
+        <v>3.78</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>18.963</v>
+        <v>18.96</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.352</v>
+        <v>6.35</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.885</v>
+        <v>2.89</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.765</v>
+        <v>3.76</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.742</v>
+        <v>4.74</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>4.86</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.524</v>
+        <v>1.52</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.136</v>
+        <v>4.14</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.759</v>
+        <v>5.76</v>
       </c>
       <c r="Q5" s="4" t="n">
         <v>3.73</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.572</v>
+        <v>0.57</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.204</v>
+        <v>0.2</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>55.644</v>
+        <v>55.64</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>11.725</v>
+        <v>11.73</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.817</v>
+        <v>3.82</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>7.658</v>
+        <v>7.66</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.052</v>
+        <v>4.05</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.569</v>
+        <v>0.57</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>9.417999999999999</v>
+        <v>9.42</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.372</v>
+        <v>3.37</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.101</v>
+        <v>3.1</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.625</v>
+        <v>3.63</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.845</v>
+        <v>4.85</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.5</v>
@@ -1060,114 +1060,10 @@
         <v>17.67</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.044</v>
+        <v>2.04</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.774</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40750.78471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>10.45</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>22.99</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>30.57</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>8.27</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>118.55</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>23.05</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>15.36</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>15.35</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>27.72</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>4.77</v>
       </c>
     </row>
   </sheetData>
